--- a/data-result/data-direction-night.xlsx
+++ b/data-result/data-direction-night.xlsx
@@ -37,7 +37,7 @@
     <t>1	5	9	4.0	7.0</t>
   </si>
   <si>
-    <t>4	1	3	0	0</t>
+    <t>4	3	3	0	0</t>
   </si>
   <si>
     <t>n10-3</t>
